--- a/biology/Zoologie/Hérisson_indien/Hérisson_indien.xlsx
+++ b/biology/Zoologie/Hérisson_indien/Hérisson_indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9risson_indien</t>
+          <t>Hérisson_indien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paraechinus micropus
-Le Hérisson indien[1] (Paraechinus micropus), est une espèce de hérissons appartenant à la famille des Erinaceidés. Espèce endémique d'Asie du Sud, ce « hérisson à grandes oreilles » est natif de l'Inde et du Pakistan. Il est largement distribué dans les régions arides de ces deux pays, jusqu'à 700 m d'altitude[2].
+Le Hérisson indien (Paraechinus micropus), est une espèce de hérissons appartenant à la famille des Erinaceidés. Espèce endémique d'Asie du Sud, ce « hérisson à grandes oreilles » est natif de l'Inde et du Pakistan. Il est largement distribué dans les régions arides de ces deux pays, jusqu'à 700 m d'altitude.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9risson_indien</t>
+          <t>Hérisson_indien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Erinaceus micropus Blyth, 1846
 Erinaceus pictus Stoliczka, 1872
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9risson_indien</t>
+          <t>Hérisson_indien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le hérisson indien se distingue du hérisson d'Europe par des piquants plus nombreux et une zone de peau chauve sur la tête. Sa couleur et variable, allant du noir au blanc (l'albinisme et le mélanisme étant assez communs)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hérisson indien se distingue du hérisson d'Europe par des piquants plus nombreux et une zone de peau chauve sur la tête. Sa couleur et variable, allant du noir au blanc (l'albinisme et le mélanisme étant assez communs).
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9risson_indien</t>
+          <t>Hérisson_indien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit ans les déserts et les savanes de l'Inde et du Pakistan. Il réduit son activité lorsque les conditions climatiques deviennent extrêmes. Il se nourrit d'insectes, de scorpions et d'autres invertébrés, mais peut aussi consommer des charognes ou des œufs à l'occasion. Il peut conserver des aliments pour les manger plus tard[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit ans les déserts et les savanes de l'Inde et du Pakistan. Il réduit son activité lorsque les conditions climatiques deviennent extrêmes. Il se nourrit d'insectes, de scorpions et d'autres invertébrés, mais peut aussi consommer des charognes ou des œufs à l'occasion. Il peut conserver des aliments pour les manger plus tard.
 </t>
         </is>
       </c>
